--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -46,34 +46,43 @@
     <t>Updated Color Code</t>
   </si>
   <si>
-    <t>180000</t>
-  </si>
-  <si>
-    <t>#46eb37</t>
-  </si>
-  <si>
-    <t>#eb37d3</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
-    <t>Select [startTime] as 'Start Duration'
+    <t>200000</t>
+  </si>
+  <si>
+    <t>#f1e211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select [startTime] as 'Start Duration'
   ,[endTime] as 'End Duration'
   ,[color] as Color
   ,colorcode as 'Color Code'
   ,lastchangedby as 'Last Changed By'
-  ,lastchangedon as 'Last Changed On'
-  from [Master_OCM].[dbo].[TMAC_Wait_Time_Color_Config];</t>
-  </si>
-  <si>
-    <t>170100</t>
-  </si>
-  <si>
-    <t>173000</t>
-  </si>
-  <si>
-    <t>172000</t>
+  ,Substring(lastchangedon,11,18) as 'Last Changed On'
+  from [Product_OCM].[dbo].[TMAC_Wait_Time_Color_Config];</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>Updated Start Time</t>
+  </si>
+  <si>
+    <t>193000</t>
+  </si>
+  <si>
+    <t>180100</t>
+  </si>
+  <si>
+    <t>#3d15dc</t>
+  </si>
+  <si>
+    <t>183000</t>
+  </si>
+  <si>
+    <t>#9a98a1</t>
   </si>
 </sst>
 </file>
@@ -116,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -124,6 +133,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,13 +443,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -447,20 +471,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -468,31 +493,59 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -501,10 +554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,19 +586,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -559,7 +629,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,12 +639,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>#f1e211</t>
   </si>
   <si>
     <t xml:space="preserve"> Select [startTime] as 'Start Duration'
@@ -64,9 +58,6 @@
   from [Product_OCM].[dbo].[TMAC_Wait_Time_Color_Config];</t>
   </si>
   <si>
-    <t>210000</t>
-  </si>
-  <si>
     <t>Updated Start Time</t>
   </si>
   <si>
@@ -83,13 +74,31 @@
   </si>
   <si>
     <t>#9a98a1</t>
+  </si>
+  <si>
+    <t>#ef1b1b</t>
+  </si>
+  <si>
+    <t>04:32:00</t>
+  </si>
+  <si>
+    <t>04:45:00</t>
+  </si>
+  <si>
+    <t>04:40:00</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +112,18 @@
       <color rgb="FF008000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,6 +159,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +444,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,24 +466,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -474,7 +497,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -506,41 +529,41 @@
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -549,6 +572,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -557,13 +581,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
   </cols>
@@ -586,34 +611,34 @@
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -621,6 +646,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -644,7 +670,7 @@
     </row>
     <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14865" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <oleSize ref="A1:F20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Modify Reason</t>
-  </si>
-  <si>
-    <t>Modified wait time config data</t>
   </si>
   <si>
     <t>Updated Color Code</t>
@@ -59,18 +56,6 @@
   </si>
   <si>
     <t>Updated Start Time</t>
-  </si>
-  <si>
-    <t>193000</t>
-  </si>
-  <si>
-    <t>180100</t>
-  </si>
-  <si>
-    <t>#3d15dc</t>
-  </si>
-  <si>
-    <t>183000</t>
   </si>
   <si>
     <t>#9a98a1</t>
@@ -444,7 +429,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,25 +451,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -497,7 +475,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,13 +494,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -530,44 +508,30 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
       <c r="G3" s="4"/>
     </row>
   </sheetData>
@@ -581,7 +545,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -612,37 +576,26 @@
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -665,12 +618,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F20"/>
+  <oleSize ref="A1:E14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,37 +46,37 @@
     <t>Query</t>
   </si>
   <si>
+    <t>Updated Start Time</t>
+  </si>
+  <si>
+    <t>#9a98a1</t>
+  </si>
+  <si>
+    <t>#ef1b1b</t>
+  </si>
+  <si>
+    <t>04:32:00</t>
+  </si>
+  <si>
+    <t>04:45:00</t>
+  </si>
+  <si>
+    <t>04:40:00</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Select [startTime] as 'Start Duration'
   ,[endTime] as 'End Duration'
   ,[color] as Color
   ,colorcode as 'Color Code'
   ,lastchangedby as 'Last Changed By'
   ,Substring(lastchangedon,11,18) as 'Last Changed On'
-  from [Product_OCM].[dbo].[TMAC_Wait_Time_Color_Config];</t>
-  </si>
-  <si>
-    <t>Updated Start Time</t>
-  </si>
-  <si>
-    <t>#9a98a1</t>
-  </si>
-  <si>
-    <t>#ef1b1b</t>
-  </si>
-  <si>
-    <t>04:32:00</t>
-  </si>
-  <si>
-    <t>04:45:00</t>
-  </si>
-  <si>
-    <t>04:40:00</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modified </t>
+  from [TMAC_Wait_Time_Color_Config];</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,13 +451,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -508,22 +508,22 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -576,19 +576,19 @@
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E14"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -77,6 +76,15 @@
   ,lastchangedby as 'Last Changed By'
   ,Substring(lastchangedon,11,18) as 'Last Changed On'
   from [TMAC_Wait_Time_Color_Config];</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>#ff</t>
+  </si>
+  <si>
+    <t>fb</t>
   </si>
 </sst>
 </file>
@@ -418,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +471,19 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -486,7 +507,7 @@
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -506,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -527,7 +548,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
@@ -557,7 +578,7 @@
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -591,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -52,15 +53,6 @@
   </si>
   <si>
     <t>#ef1b1b</t>
-  </si>
-  <si>
-    <t>04:32:00</t>
-  </si>
-  <si>
-    <t>04:45:00</t>
-  </si>
-  <si>
-    <t>04:40:00</t>
   </si>
   <si>
     <t>delete</t>
@@ -85,6 +77,18 @@
   </si>
   <si>
     <t>fb</t>
+  </si>
+  <si>
+    <t>#783838</t>
+  </si>
+  <si>
+    <t>09:32:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
   </si>
 </sst>
 </file>
@@ -139,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,6 +158,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,30 +464,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +501,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,22 +534,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -565,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +602,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -609,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -644,7 +649,7 @@
     </row>
     <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -95,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +108,12 @@
       <color rgb="FF008000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -143,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -159,6 +164,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,17 +482,22 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -500,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,7 +449,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,11 +513,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J10"/>
+  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,9 +48,6 @@
     <t>Updated Start Time</t>
   </si>
   <si>
-    <t>#9a98a1</t>
-  </si>
-  <si>
     <t>#ef1b1b</t>
   </si>
   <si>
@@ -79,23 +75,26 @@
     <t>fb</t>
   </si>
   <si>
-    <t>#783838</t>
-  </si>
-  <si>
-    <t>09:32:00</t>
-  </si>
-  <si>
-    <t>09:45:00</t>
-  </si>
-  <si>
-    <t>09:40:00</t>
+    <t>09:48:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>09:59:00</t>
+  </si>
+  <si>
+    <t>#561d57</t>
+  </si>
+  <si>
+    <t>#3ed45f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,12 +108,6 @@
       <color rgb="FF008000"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -149,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,8 +157,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +440,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,35 +462,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -512,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,22 +538,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -583,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,19 +606,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,7 +653,7 @@
     </row>
     <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -75,19 +75,19 @@
     <t>fb</t>
   </si>
   <si>
-    <t>09:48:00</t>
-  </si>
-  <si>
-    <t>09:50:00</t>
-  </si>
-  <si>
-    <t>09:59:00</t>
-  </si>
-  <si>
-    <t>#561d57</t>
-  </si>
-  <si>
-    <t>#3ed45f</t>
+    <t>08:48:00</t>
+  </si>
+  <si>
+    <t>08:59:00</t>
+  </si>
+  <si>
+    <t>08:50:00</t>
+  </si>
+  <si>
+    <t>#61b377</t>
+  </si>
+  <si>
+    <t>#304078</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +606,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
@@ -617,7 +617,7 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -81,13 +81,16 @@
     <t>08:59:00</t>
   </si>
   <si>
-    <t>08:50:00</t>
-  </si>
-  <si>
-    <t>#61b377</t>
-  </si>
-  <si>
-    <t>#304078</t>
+    <t>08:40:00</t>
+  </si>
+  <si>
+    <t>#0e101e</t>
+  </si>
+  <si>
+    <t>#1e0e16</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,6 +160,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,11 +472,13 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
@@ -503,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +553,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -575,7 +581,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,16 +612,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1491761-7D7F-4138-8E0C-105B8674B21C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -66,15 +67,6 @@
   from [TMAC_Wait_Time_Color_Config];</t>
   </si>
   <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>#ff</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
     <t>08:48:00</t>
   </si>
   <si>
@@ -88,12 +80,18 @@
   </si>
   <si>
     <t>#304078</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>#f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,20 +434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -460,37 +458,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -500,23 +498,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="3" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -536,28 +534,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
@@ -571,23 +569,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -604,24 +602,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -634,24 +632,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1491761-7D7F-4138-8E0C-105B8674B21C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58061BE3-8889-4E40-8E76-9C1E6E2955B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,7 +604,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>

--- a/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/WaitTimeColorConfigData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECA0EE3-608F-4330-BB78-B301D6306C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14385" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,40 +58,40 @@
     <t xml:space="preserve">Modified </t>
   </si>
   <si>
+    <t>#61b377</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>#f</t>
+  </si>
+  <si>
+    <t>#449c30</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>10:59:00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Select [startTime] as 'Start Duration'
   ,[endTime] as 'End Duration'
   ,[color] as Color
   ,colorcode as 'Color Code'
   ,lastchangedby as 'Last Changed By'
   ,Substring(lastchangedon,11,18) as 'Last Changed On'
-  from [TMAC_Wait_Time_Color_Config];</t>
-  </si>
-  <si>
-    <t>#61b377</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>#f</t>
-  </si>
-  <si>
-    <t>#449c30</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>10:59:00</t>
+  from [TMAC_Wait_Time_Color_Config] Order By [color] Asc;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,27 +427,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -458,37 +458,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -498,23 +498,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="3" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
@@ -569,23 +569,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -602,24 +602,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -632,26 +632,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
